--- a/biology/Botanique/Jardin_du_Moulin_de_la_Vierge_-_Carole_Roussopoulos/Jardin_du_Moulin_de_la_Vierge_-_Carole_Roussopoulos.xlsx
+++ b/biology/Botanique/Jardin_du_Moulin_de_la_Vierge_-_Carole_Roussopoulos/Jardin_du_Moulin_de_la_Vierge_-_Carole_Roussopoulos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin du Moulin de la Vierge - Carole Roussopoulos est un espace vert du 14e arrondissement de Paris, en France.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin est accessible par le 125, rue Vercingétorix.
 Il est desservi par la ligne 13 à la station Plaisance.
@@ -544,9 +558,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom rappelle que cet emplacement était occupé par un moulin à vent appelé « moulin de la Vierge »[1]. En juin 2022 est accolé le nom de Carole Roussopoulos[2] (1945-2009), féministe et réalisatrice  suisso-française.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom rappelle que cet emplacement était occupé par un moulin à vent appelé « moulin de la Vierge ». En juin 2022 est accolé le nom de Carole Roussopoulos (1945-2009), féministe et réalisatrice  suisso-française.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Situé dans la ZAC Guilleminot-Vercingétorix, le jardin est créé en 1985.
 </t>
